--- a/macrophage_model.xlsx
+++ b/macrophage_model.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F39907-02ED-0B45-A215-0BAD2661DBDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA131AA-91AD-E24B-9D2B-16A1059D0A8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="540" windowWidth="25440" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="540" windowWidth="25440" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
     <sheet name="reactions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>Species information</t>
   </si>
@@ -442,9 +441,6 @@
   </si>
   <si>
     <t>nuclear factor kappa</t>
-  </si>
-  <si>
-    <t>model id</t>
   </si>
 </sst>
 </file>
@@ -562,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -613,12 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,209 +992,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DL37"/>
+  <dimension ref="A1:DK37"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="7" customFormat="1">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:115" s="7" customFormat="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:116" s="3" customFormat="1">
-      <c r="A2" s="26" t="s">
-        <v>140</v>
+    </row>
+    <row r="2" spans="1:115" s="3" customFormat="1">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:115" ht="18" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="20">
         <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:116" ht="18" customHeight="1">
-      <c r="A3" s="25">
-        <v>0</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:115">
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
         <v>1</v>
       </c>
-      <c r="G3" s="20">
+      <c r="F4" s="20">
         <v>0.1</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="G4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:115">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:115">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:116">
-      <c r="A4" s="25">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:115" s="2" customFormat="1">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F7" s="20">
         <v>0.1</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:116">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:116">
-      <c r="A6" s="25">
-        <v>3</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:116" s="2" customFormat="1">
-      <c r="A7" s="25">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="H7" s="20"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -1310,37 +1283,34 @@
       <c r="DI7"/>
       <c r="DJ7"/>
       <c r="DK7"/>
-      <c r="DL7"/>
-    </row>
-    <row r="8" spans="1:116" s="2" customFormat="1">
-      <c r="A8" s="25">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:115" s="2" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
       <c r="E8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
-        <v>1</v>
+      <c r="G8" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -1446,125 +1416,113 @@
       <c r="DI8"/>
       <c r="DJ8"/>
       <c r="DK8"/>
-      <c r="DL8"/>
-    </row>
-    <row r="9" spans="1:116">
-      <c r="A9" s="25">
-        <v>6</v>
+    </row>
+    <row r="9" spans="1:115">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:115">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="B10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="E10" s="20">
         <v>1</v>
       </c>
-      <c r="G9" s="20">
+      <c r="F10" s="20">
         <v>0.1</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:116">
-      <c r="A10" s="25">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="H10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:115">
+      <c r="A11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="B11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20">
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="E11" s="20">
         <v>1</v>
       </c>
-      <c r="G10" s="20">
+      <c r="F11" s="20">
         <v>0.1</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:116">
-      <c r="A11" s="25">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="H11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:115" s="2" customFormat="1">
+      <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="B12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20">
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="G11" s="20">
+      <c r="F12" s="20">
         <v>0.1</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:116" s="2" customFormat="1">
-      <c r="A12" s="25">
-        <v>9</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0.1</v>
-      </c>
       <c r="H12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -1670,35 +1628,32 @@
       <c r="DI12"/>
       <c r="DJ12"/>
       <c r="DK12"/>
-      <c r="DL12"/>
-    </row>
-    <row r="13" spans="1:116" s="2" customFormat="1">
-      <c r="A13" s="25">
-        <v>10</v>
+    </row>
+    <row r="13" spans="1:115" s="2" customFormat="1">
+      <c r="A13" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
       <c r="E13" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="20">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20">
         <v>0.1</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -1804,65 +1759,59 @@
       <c r="DI13"/>
       <c r="DJ13"/>
       <c r="DK13"/>
-      <c r="DL13"/>
-    </row>
-    <row r="14" spans="1:116">
-      <c r="A14" s="25">
+    </row>
+    <row r="14" spans="1:115">
+      <c r="A14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="H14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:115" s="2" customFormat="1">
+      <c r="A15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="20">
         <v>0</v>
       </c>
-      <c r="F14" s="20">
+      <c r="E15" s="20">
         <v>1</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:116" s="2" customFormat="1">
-      <c r="A15" s="25">
-        <v>12</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
       </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -1968,265 +1917,238 @@
       <c r="DI15"/>
       <c r="DJ15"/>
       <c r="DK15"/>
-      <c r="DL15"/>
-    </row>
-    <row r="16" spans="1:116">
-      <c r="A16" s="25">
-        <v>13</v>
+    </row>
+    <row r="16" spans="1:115">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
       <c r="E16" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
         <v>1</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="25">
-        <v>14</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
       </c>
       <c r="F17" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
         <v>1</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="F18" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="25">
-        <v>15</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="F18" s="20">
+      <c r="E19" s="20">
         <v>1</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="25">
-        <v>16</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0</v>
       </c>
       <c r="F19" s="20">
         <v>1</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
         <v>1</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="25">
-        <v>17</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0</v>
       </c>
       <c r="F20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
         <v>1</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="25">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0</v>
       </c>
       <c r="F21" s="20">
         <v>1</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
         <v>1</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="25">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="20">
-        <v>0</v>
       </c>
       <c r="F22" s="20">
         <v>1</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
         <v>1</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="25">
-        <v>20</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="20">
-        <v>0</v>
       </c>
       <c r="F23" s="20">
         <v>1</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
         <v>1</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="25">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="20">
-        <v>0</v>
       </c>
       <c r="F24" s="20">
         <v>1</v>
       </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20" t="s">
+      <c r="G24" s="20" t="s">
         <v>121</v>
       </c>
+      <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -2235,9 +2157,9 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2246,9 +2168,9 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2257,9 +2179,9 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2268,9 +2190,9 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -2279,9 +2201,9 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2290,9 +2212,9 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2301,9 +2223,9 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2312,9 +2234,9 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="2:10">
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -2323,9 +2245,9 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="2:10">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -2334,9 +2256,9 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="2:10">
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -2345,9 +2267,9 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="2:10">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -2356,9 +2278,9 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="2:10">
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -2367,7 +2289,6 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/macrophage_model.xlsx
+++ b/macrophage_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E517E-62E9-BE47-9D5C-102D065100AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E4A6D-9586-B245-B379-D59C082D0A99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19660" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:DK43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/macrophage_model.xlsx
+++ b/macrophage_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E4A6D-9586-B245-B379-D59C082D0A99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD320264-5037-8347-B3B9-A7032DB7F8CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19660" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="460" windowWidth="19660" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="163">
   <si>
     <t>Species information</t>
   </si>
@@ -194,9 +194,6 @@
     <t>molecule</t>
   </si>
   <si>
-    <t>FPR1</t>
-  </si>
-  <si>
     <t>formyl peptide receptor 1</t>
   </si>
   <si>
@@ -206,12 +203,6 @@
     <t>interleukin-10</t>
   </si>
   <si>
-    <t>cpd43</t>
-  </si>
-  <si>
-    <t>Hsp27</t>
-  </si>
-  <si>
     <t>heat shock protein 27</t>
   </si>
   <si>
@@ -239,27 +230,9 @@
     <t>IL1_macrophage</t>
   </si>
   <si>
-    <t>=&gt; cpd43</t>
-  </si>
-  <si>
-    <t>cpd43 =&gt; FPR1</t>
-  </si>
-  <si>
-    <t>FPR2</t>
-  </si>
-  <si>
     <t>formyl peptide receptor 2/ALXR</t>
   </si>
   <si>
-    <t>cpd43 =&gt; FPR2</t>
-  </si>
-  <si>
-    <t>FPR1 =&gt; Ca_macrophage</t>
-  </si>
-  <si>
-    <t>FPR2 =&gt; Ca_macrophage</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -299,9 +272,6 @@
     <t>r19</t>
   </si>
   <si>
-    <t>AP1_macrophage =&gt; CCL2</t>
-  </si>
-  <si>
     <t>r20</t>
   </si>
   <si>
@@ -335,39 +305,12 @@
     <t>MEKK1_macrophage</t>
   </si>
   <si>
-    <t>IL6mRNA</t>
-  </si>
-  <si>
-    <t>IL1mRNA</t>
-  </si>
-  <si>
-    <t>TNFamRNA</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage =&gt; IL6mRNA</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage =&gt; TNFamRNA</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage =&gt; IL1mRNA</t>
-  </si>
-  <si>
-    <t>FPR1 =&gt; cAMP_macrophage</t>
-  </si>
-  <si>
     <t>nuclear factor kappa</t>
   </si>
   <si>
     <t>!IL10_macrophage =&gt; IL6_macrophage</t>
   </si>
   <si>
-    <t>IL6mRNA =&gt; IL6_macrophage</t>
-  </si>
-  <si>
-    <t>IL1mRNA =&gt; IL1_macrophage</t>
-  </si>
-  <si>
     <t>!IL10_macrophage =&gt; IL1_macrophage</t>
   </si>
   <si>
@@ -392,51 +335,21 @@
     <t>TNFa mRNA</t>
   </si>
   <si>
-    <t>TNFamRNA =&gt; TNFa_macrophage</t>
-  </si>
-  <si>
     <t>IL10 mRNA</t>
   </si>
   <si>
-    <t>IL10mRNA</t>
-  </si>
-  <si>
-    <t>Hsp27 =&gt; IL10mRNA</t>
-  </si>
-  <si>
-    <t>IL10mRNA =&gt; IL10_macrophage</t>
-  </si>
-  <si>
     <t>r27</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>Ca_macrophage =&gt; CALM</t>
-  </si>
-  <si>
-    <t>CALM =&gt; PP3CA</t>
-  </si>
-  <si>
-    <t>PP3CA =&gt; NFAT</t>
-  </si>
-  <si>
     <t>r28</t>
   </si>
   <si>
     <t>r29</t>
   </si>
   <si>
-    <t>CALM</t>
-  </si>
-  <si>
-    <t>PP3CA</t>
-  </si>
-  <si>
-    <t>NFAT</t>
-  </si>
-  <si>
     <t>Calcineurin A</t>
   </si>
   <si>
@@ -449,42 +362,15 @@
     <t>i2</t>
   </si>
   <si>
-    <t>=&gt; LPS</t>
-  </si>
-  <si>
-    <t>LPS =&gt; TLR</t>
-  </si>
-  <si>
-    <t>TLR =&gt; P13K</t>
-  </si>
-  <si>
-    <t>P13K =&gt; AKT</t>
-  </si>
-  <si>
-    <t>AKT =&gt; NFKB_macrophage</t>
-  </si>
-  <si>
     <t>r30</t>
   </si>
   <si>
     <t>r31</t>
   </si>
   <si>
-    <t>LPS</t>
-  </si>
-  <si>
     <t>lipopolysaccharide</t>
   </si>
   <si>
-    <t>TLR</t>
-  </si>
-  <si>
-    <t>P13K</t>
-  </si>
-  <si>
-    <t>AKT</t>
-  </si>
-  <si>
     <t>toll like receptor</t>
   </si>
   <si>
@@ -497,16 +383,133 @@
     <t>Akt/Protein kinase B</t>
   </si>
   <si>
-    <t>FPR2 =&gt; Ras_macrophage</t>
-  </si>
-  <si>
-    <t>FPR1 =&gt; Ras_macrophage</t>
-  </si>
-  <si>
-    <t>p38_macrophage =&gt; Hsp27</t>
-  </si>
-  <si>
     <t>MEKK1_macrophage =&gt; ERK_macrophage</t>
+  </si>
+  <si>
+    <t>CALM_macrophage =&gt; PP3CA_macrophage</t>
+  </si>
+  <si>
+    <t>Hsp27_macrophage</t>
+  </si>
+  <si>
+    <t>CCL2_macrophage</t>
+  </si>
+  <si>
+    <t>IL10mRNA_macrophage</t>
+  </si>
+  <si>
+    <t>IL1mRNA_macrophage</t>
+  </si>
+  <si>
+    <t>IL6mRNA_macrophage</t>
+  </si>
+  <si>
+    <t>TNFamRNA_macrophage</t>
+  </si>
+  <si>
+    <t>cpd43_macrophage</t>
+  </si>
+  <si>
+    <t>LPS_macrophage</t>
+  </si>
+  <si>
+    <t>TLR_macrophage</t>
+  </si>
+  <si>
+    <t>AKT_macrophage</t>
+  </si>
+  <si>
+    <t>FPR1_macrophage</t>
+  </si>
+  <si>
+    <t>FPR2_macrophage</t>
+  </si>
+  <si>
+    <t>CALM_macrophage</t>
+  </si>
+  <si>
+    <t>NFAT_macrophage</t>
+  </si>
+  <si>
+    <t>PP3CA_macrophage</t>
+  </si>
+  <si>
+    <t>=&gt; cpd43_macrophage</t>
+  </si>
+  <si>
+    <t>=&gt; LPS_macrophage</t>
+  </si>
+  <si>
+    <t>LPS_macrophage =&gt; TLR_macrophage</t>
+  </si>
+  <si>
+    <t>AKT_macrophage =&gt; NFKB_macrophage</t>
+  </si>
+  <si>
+    <t>cpd43_macrophage =&gt; FPR2_macrophage</t>
+  </si>
+  <si>
+    <t>cpd43_macrophage =&gt; FPR1_macrophage</t>
+  </si>
+  <si>
+    <t>FPR1_macrophage =&gt; Ca_macrophage</t>
+  </si>
+  <si>
+    <t>FPR2_macrophage =&gt; Ca_macrophage</t>
+  </si>
+  <si>
+    <t>Ca_macrophage =&gt; CALM_macrophage</t>
+  </si>
+  <si>
+    <t>PP3CA_macrophage =&gt; NFAT_macrophage</t>
+  </si>
+  <si>
+    <t>FPR1_macrophage =&gt; cAMP_macrophage</t>
+  </si>
+  <si>
+    <t>FPR1_macrophage =&gt; Ras_macrophage</t>
+  </si>
+  <si>
+    <t>FPR2_macrophage =&gt; Ras_macrophage</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage =&gt; IL6mRNA_macrophage</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage =&gt; TNFamRNA_macrophage</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage =&gt; IL1mRNA_macrophage</t>
+  </si>
+  <si>
+    <t>p38_macrophage =&gt; Hsp27_macrophage</t>
+  </si>
+  <si>
+    <t>Hsp27_macrophage =&gt; IL10mRNA_macrophage</t>
+  </si>
+  <si>
+    <t>IL10mRNA_macrophage =&gt; IL10_macrophage</t>
+  </si>
+  <si>
+    <t>IL6mRNA_macrophage =&gt; IL6_macrophage</t>
+  </si>
+  <si>
+    <t>IL1mRNA_macrophage =&gt; IL1_macrophage</t>
+  </si>
+  <si>
+    <t>TNFamRNA_macrophage =&gt; TNFa_macrophage</t>
+  </si>
+  <si>
+    <t>AP1_macrophage =&gt; CCL2_macrophage</t>
+  </si>
+  <si>
+    <t>PI3K_macrophage =&gt; AKT_macrophage</t>
+  </si>
+  <si>
+    <t>TLR_macrophage =&gt; PI3K_macrophage</t>
+  </si>
+  <si>
+    <t>PI3K_macrophage</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:DK43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1127,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:115" ht="18" customHeight="1">
@@ -1135,10 +1138,10 @@
         <v>56</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="27">
         <v>1</v>
@@ -1163,10 +1166,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D4" s="27">
         <v>0</v>
@@ -1191,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D5" s="27">
         <v>0</v>
@@ -1216,13 +1219,13 @@
     </row>
     <row r="6" spans="1:115" ht="18" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D6" s="27">
         <v>0</v>
@@ -1244,13 +1247,13 @@
     </row>
     <row r="7" spans="1:115" ht="18" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D7" s="27">
         <v>0</v>
@@ -1275,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="27">
         <v>0</v>
@@ -1303,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D9" s="27">
         <v>0</v>
@@ -1331,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>15</v>
@@ -1359,10 +1362,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D11" s="27">
         <v>0</v>
@@ -1390,7 +1393,7 @@
         <v>136</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D12" s="27">
         <v>0</v>
@@ -1415,10 +1418,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D13" s="27">
         <v>0</v>
@@ -1443,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>13</v>
@@ -1576,10 +1579,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
@@ -1604,10 +1607,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D16" s="27">
         <v>0</v>
@@ -1622,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16">
@@ -1634,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>23</v>
@@ -1664,10 +1667,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="27">
         <v>0</v>
@@ -1797,10 +1800,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D19" s="27">
         <v>0</v>
@@ -1815,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19">
@@ -1929,13 +1932,13 @@
     </row>
     <row r="20" spans="1:115">
       <c r="A20" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D20" s="27">
         <v>0</v>
@@ -1950,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20">
@@ -1962,7 +1965,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>23</v>
@@ -2028,10 +2031,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D22" s="27">
         <v>0</v>
@@ -2163,10 +2166,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D23" s="27">
         <v>0</v>
@@ -2191,10 +2194,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D24" s="27">
         <v>0</v>
@@ -2219,10 +2222,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D25" s="27">
         <v>0</v>
@@ -2247,10 +2250,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D26" s="27">
         <v>0</v>
@@ -2275,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>17</v>
@@ -2305,10 +2308,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D28" s="27">
         <v>0</v>
@@ -2323,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28">
@@ -2335,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>19</v>
@@ -2365,10 +2368,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="27">
         <v>0</v>
@@ -2543,7 +2546,7 @@
   <dimension ref="A1:AY134"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2668,7 +2671,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D3" s="27">
         <v>0.25</v>
@@ -2725,10 +2728,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D4" s="27">
         <v>0.25</v>
@@ -2786,7 +2789,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" s="27">
         <v>1</v>
@@ -2846,7 +2849,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D6" s="27">
         <v>1</v>
@@ -2904,7 +2907,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
@@ -2962,7 +2965,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D8" s="28">
         <v>1</v>
@@ -3020,7 +3023,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D9" s="27">
         <v>1</v>
@@ -3080,7 +3083,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D10" s="27">
         <v>1</v>
@@ -3140,7 +3143,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="D11" s="28">
         <v>1</v>
@@ -3195,10 +3198,10 @@
         <v>45</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D12" s="28">
         <v>1</v>
@@ -3256,7 +3259,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -3314,7 +3317,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D14" s="28">
         <v>1</v>
@@ -3372,7 +3375,7 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D15" s="28">
         <v>1</v>
@@ -3430,7 +3433,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D16" s="28">
         <v>1</v>
@@ -3495,7 +3498,7 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D17" s="28">
         <v>1</v>
@@ -3553,7 +3556,7 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D18" s="28">
         <v>1</v>
@@ -3611,7 +3614,7 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D19" s="28">
         <v>1</v>
@@ -3669,7 +3672,7 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D20" s="28">
         <v>1</v>
@@ -3727,7 +3730,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D21" s="28">
         <v>1</v>
@@ -3782,10 +3785,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="D22" s="28">
         <v>1</v>
@@ -3836,10 +3839,10 @@
         <v>45</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="D23" s="28">
         <v>1</v>
@@ -3901,10 +3904,10 @@
         <v>45</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D24" s="28">
         <v>1</v>
@@ -3959,10 +3962,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D25" s="28">
         <v>1</v>
@@ -4017,10 +4020,10 @@
         <v>45</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D26" s="28">
         <v>1</v>
@@ -4075,10 +4078,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D27" s="28">
         <v>1</v>
@@ -4133,10 +4136,10 @@
         <v>45</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="D28" s="28">
         <v>1</v>
@@ -4191,10 +4194,10 @@
         <v>45</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="D29" s="28">
         <v>1</v>
@@ -4249,10 +4252,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D30" s="28">
         <v>1</v>
@@ -4307,10 +4310,10 @@
         <v>45</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D31" s="28">
         <v>1</v>
@@ -4365,10 +4368,10 @@
         <v>45</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D32" s="28">
         <v>1</v>
@@ -4423,10 +4426,10 @@
         <v>45</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D33" s="28">
         <v>1</v>
@@ -4481,10 +4484,10 @@
         <v>45</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D34" s="28">
         <v>1</v>
@@ -4539,10 +4542,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D35" s="28">
         <v>1</v>
